--- a/input_data/admin_data/CHL/gpinter_CHL_2011.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2011.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>year</t>
   </si>
@@ -210,6 +210,42 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -405,10 +441,82 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -662,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J77"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -670,31 +778,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
@@ -702,31 +810,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D2">
-        <v>1278420.7322704401</v>
+        <v>2503154.8544669901</v>
       </c>
       <c r="E2">
-        <v>0.63</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F2">
-        <v>8311.0093776311405</v>
+        <v>43792.208178557798</v>
       </c>
       <c r="G2">
-        <v>0.99999523104932597</v>
+        <v>0.99992762551175995</v>
       </c>
       <c r="H2">
-        <v>3455174.6906622201</v>
+        <v>5108109.57125594</v>
       </c>
       <c r="I2">
-        <v>37522.794665973197</v>
+        <v>71232.797168145597</v>
       </c>
       <c r="J2">
-        <v>415.73466394608198</v>
+        <v>116.64425667754</v>
       </c>
     </row>
     <row r="3">
@@ -734,29 +842,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.64000000000000001</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F3">
-        <v>67523.299568766903</v>
+        <v>99217.066105216902</v>
       </c>
       <c r="G3">
-        <v>0.99970172208378105</v>
+        <v>0.99964305343648097</v>
       </c>
       <c r="H3">
-        <v>3550109.4655510099</v>
+        <v>5213044.5040494399</v>
       </c>
       <c r="I3">
-        <v>99152.631753010006</v>
+        <v>128311.80946439</v>
       </c>
       <c r="J3">
-        <v>52.576066161214698</v>
+        <v>52.541812701064501</v>
       </c>
     </row>
     <row r="4">
@@ -764,29 +872,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.65000000000000002</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F4">
-        <v>131622.59893666301</v>
+        <v>157973.45917695999</v>
       </c>
       <c r="G4">
-        <v>0.998926135226887</v>
+        <v>0.99913045307044501</v>
       </c>
       <c r="H4">
-        <v>3648708.2322309501</v>
+        <v>5321230.30606189</v>
       </c>
       <c r="I4">
-        <v>165827.861071352</v>
+        <v>188792.58238642401</v>
       </c>
       <c r="J4">
-        <v>27.720986074638301</v>
+        <v>33.684331113501301</v>
       </c>
     </row>
     <row r="5">
@@ -794,29 +902,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.66000000000000003</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F5">
-        <v>200928.30915464499</v>
+        <v>220202.37541993699</v>
       </c>
       <c r="G5">
-        <v>0.99762900465879201</v>
+        <v>0.99837623452080304</v>
       </c>
       <c r="H5">
-        <v>3751145.8902062299</v>
+        <v>5432805.0391852697</v>
       </c>
       <c r="I5">
-        <v>237875.773034782</v>
+        <v>252817.66593823701</v>
       </c>
       <c r="J5">
-        <v>18.669076079862698</v>
+        <v>24.6718729933073</v>
       </c>
     </row>
     <row r="6">
@@ -824,29 +932,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.67000000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F6">
-        <v>275775.58349803399</v>
+        <v>286047.87539112999</v>
       </c>
       <c r="G6">
-        <v>0.99576830444461195</v>
+        <v>0.99736623841334304</v>
       </c>
       <c r="H6">
-        <v>3857608.6210296098</v>
+        <v>5547915.8697018698</v>
       </c>
       <c r="I6">
-        <v>315639.28933921602</v>
+        <v>320532.516914409</v>
       </c>
       <c r="J6">
-        <v>13.9882166945251</v>
+        <v>19.395060571996499</v>
       </c>
     </row>
     <row r="7">
@@ -854,29 +962,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.68000000000000005</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F7">
-        <v>356515.04138710501</v>
+        <v>355656.74894077302</v>
       </c>
       <c r="G7">
-        <v>0.99329932626417705</v>
+        <v>0.99608572427997899</v>
       </c>
       <c r="H7">
-        <v>3968295.16264494</v>
+        <v>5666720.03681067</v>
       </c>
       <c r="I7">
-        <v>399476.53169203101</v>
+        <v>392085.118886096</v>
       </c>
       <c r="J7">
-        <v>11.1307930997956</v>
+        <v>15.9331154369697</v>
       </c>
     </row>
     <row r="8">
@@ -884,29 +992,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.68999999999999995</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F8">
-        <v>443512.17947892699</v>
+        <v>429178.09689123702</v>
       </c>
       <c r="G8">
-        <v>0.99017456051524699</v>
+        <v>0.99451936046438605</v>
       </c>
       <c r="H8">
-        <v>4083418.3442885801</v>
+        <v>5789385.9651344996</v>
       </c>
       <c r="I8">
-        <v>489760.04917724599</v>
+        <v>467625.52240794402</v>
       </c>
       <c r="J8">
-        <v>9.2070038506859095</v>
+        <v>13.4894721027706</v>
       </c>
     </row>
     <row r="9">
@@ -914,29 +1022,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.69999999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F9">
-        <v>537146.40093537199</v>
+        <v>506762.828142235</v>
       </c>
       <c r="G9">
-        <v>0.98634358346039697</v>
+        <v>0.99265121586448901</v>
       </c>
       <c r="H9">
-        <v>4203206.9541256204</v>
+        <v>5916094.5471041799</v>
       </c>
       <c r="I9">
-        <v>586875.61775551306</v>
+        <v>547305.29563742201</v>
       </c>
       <c r="J9">
-        <v>7.8250677037140601</v>
+        <v>11.6742867048719</v>
       </c>
     </row>
     <row r="10">
@@ -944,29 +1052,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.70999999999999996</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F10">
-        <v>637809.56776757597</v>
+        <v>588563.062052386</v>
       </c>
       <c r="G10">
-        <v>0.98175295376438698</v>
+        <v>0.99046475386969601</v>
       </c>
       <c r="H10">
-        <v>4327908.03469011</v>
+        <v>6047040.6264082501</v>
       </c>
       <c r="I10">
-        <v>691220.50715924497</v>
+        <v>631276.87491859205</v>
       </c>
       <c r="J10">
-        <v>6.7855802945045198</v>
+        <v>10.2742441996301</v>
       </c>
     </row>
     <row r="11">
@@ -974,29 +1082,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.71999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F11">
-        <v>745903.96125098795</v>
+        <v>674731.42542715999</v>
       </c>
       <c r="G11">
-        <v>0.97634612258814701</v>
+        <v>0.98794282889253304</v>
       </c>
       <c r="H11">
-        <v>4457789.7321019201</v>
+        <v>6182434.7201954899</v>
       </c>
       <c r="I11">
-        <v>803201.08870304597</v>
+        <v>719692.80452438199</v>
       </c>
       <c r="J11">
-        <v>5.9763588393143401</v>
+        <v>9.1628083222617107</v>
       </c>
     </row>
     <row r="12">
@@ -1004,29 +1112,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.72999999999999998</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F12">
-        <v>861839.51189300301</v>
+        <v>765420.23316758696</v>
       </c>
       <c r="G12">
-        <v>0.97006336239482105</v>
+        <v>0.98506768593747396</v>
       </c>
       <c r="H12">
-        <v>4593144.8670426197</v>
+        <v>6322505.0257255202</v>
       </c>
       <c r="I12">
-        <v>923229.63211937505</v>
+        <v>812704.85459161503</v>
       </c>
       <c r="J12">
-        <v>5.32946656965626</v>
+        <v>8.2601749362708805</v>
       </c>
     </row>
     <row r="13">
@@ -1034,29 +1142,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.73999999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="F13">
-        <v>986030.13296264096</v>
+        <v>860780.54175713996</v>
       </c>
       <c r="G13">
-        <v>0.96284172081146102</v>
+        <v>0.98182096369357696</v>
       </c>
       <c r="H13">
-        <v>4734295.4530012095</v>
+        <v>6467499.7670711502</v>
       </c>
       <c r="I13">
-        <v>1051720.1099721801</v>
+        <v>910463.00679314998</v>
       </c>
       <c r="J13">
-        <v>4.8013699528395497</v>
+        <v>7.5135292369281803</v>
       </c>
     </row>
     <row r="14">
@@ -1064,29 +1172,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="F14">
-        <v>1118888.9600100799</v>
+        <v>960961.06550967298</v>
       </c>
       <c r="G14">
-        <v>0.954615007309214</v>
+        <v>0.97818370167933</v>
       </c>
       <c r="H14">
-        <v>4881598.4667223701</v>
+        <v>6617689.9497813601</v>
       </c>
       <c r="I14">
-        <v>1189082.7946577701</v>
+        <v>1013114.29835654</v>
       </c>
       <c r="J14">
-        <v>4.3628980544042397</v>
+        <v>6.8865328547639804</v>
       </c>
     </row>
     <row r="15">
@@ -1094,29 +1202,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.76000000000000001</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F15">
-        <v>1260822.2634143101</v>
+        <v>1066106.94719872</v>
       </c>
       <c r="G15">
-        <v>0.94531382214659598</v>
+        <v>0.97413635200558302</v>
       </c>
       <c r="H15">
-        <v>5035453.2863917304</v>
+        <v>6773372.6067653801</v>
       </c>
       <c r="I15">
-        <v>1335717.39618103</v>
+        <v>1120801.5175238799</v>
       </c>
       <c r="J15">
-        <v>3.9937851928119401</v>
+        <v>6.3533706675141497</v>
       </c>
     </row>
     <row r="16">
@@ -1124,29 +1232,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.77000000000000002</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F16">
-        <v>1412221.7630028799</v>
+        <v>1176358.3778138501</v>
       </c>
       <c r="G16">
-        <v>0.93486563899010999</v>
+        <v>0.96965879635007202</v>
       </c>
       <c r="H16">
-        <v>5196311.3685748</v>
+        <v>6934874.6378865698</v>
       </c>
       <c r="I16">
-        <v>1492004.45068175</v>
+        <v>1233661.74757345</v>
       </c>
       <c r="J16">
-        <v>3.6795293095651198</v>
+        <v>5.8952057201942099</v>
       </c>
     </row>
     <row r="17">
@@ -1154,29 +1262,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.78000000000000003</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F17">
-        <v>1573455.0361323999</v>
+        <v>1291849.0654456799</v>
       </c>
       <c r="G17">
-        <v>0.92319495489511705</v>
+        <v>0.96473036874851104</v>
       </c>
       <c r="H17">
-        <v>5364688.9557517599</v>
+        <v>7102557.3699546</v>
       </c>
       <c r="I17">
-        <v>1658294.6346422699</v>
+        <v>1351824.7633183801</v>
       </c>
       <c r="J17">
-        <v>3.4094961931281702</v>
+        <v>5.49797771267054</v>
       </c>
     </row>
     <row r="18">
@@ -1184,29 +1292,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.79000000000000004</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F18">
-        <v>1744853.6795254</v>
+        <v>1412704.5617098999</v>
       </c>
       <c r="G18">
-        <v>0.91022352387258298</v>
+        <v>0.95932988479161196</v>
       </c>
       <c r="H18">
-        <v>5541183.9234236404</v>
+        <v>7276821.9943981301</v>
       </c>
       <c r="I18">
-        <v>1834895.6566218699</v>
+        <v>1475411.2945471699</v>
       </c>
       <c r="J18">
-        <v>3.1757298554288198</v>
+        <v>5.1509864069458704</v>
       </c>
     </row>
     <row r="19">
@@ -1214,29 +1322,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.80000000000000004</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F19">
-        <v>1926698.8730317899</v>
+        <v>1539040.46719933</v>
       </c>
       <c r="G19">
-        <v>0.89587069299066302</v>
+        <v>0.95343567775957705</v>
       </c>
       <c r="H19">
-        <v>5726498.3367637303</v>
+        <v>7458116.0787684703</v>
       </c>
       <c r="I19">
-        <v>2022056.3851299901</v>
+        <v>1604531.1871989099</v>
       </c>
       <c r="J19">
-        <v>2.9721812873397799</v>
+        <v>4.8459519016679202</v>
       </c>
     </row>
     <row r="20">
@@ -1244,29 +1352,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.81000000000000005</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F20">
-        <v>2119204.0243892898</v>
+        <v>1670960.5574413899</v>
       </c>
       <c r="G20">
-        <v>0.88005386263045005</v>
+        <v>0.94702564210263196</v>
       </c>
       <c r="H20">
-        <v>5921468.96579709</v>
+        <v>7646941.39785136</v>
       </c>
       <c r="I20">
-        <v>2219947.9415208399</v>
+        <v>1739281.5178465</v>
       </c>
       <c r="J20">
-        <v>2.7941948475223102</v>
+        <v>4.5763745671893696</v>
       </c>
     </row>
     <row r="21">
@@ -1274,29 +1382,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.81999999999999995</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F21">
-        <v>2322494.29436702</v>
+        <v>1808554.9010894501</v>
       </c>
       <c r="G21">
-        <v>0.86268909463597099</v>
+        <v>0.94007728445411198</v>
       </c>
       <c r="H21">
-        <v>6127109.0227013202</v>
+        <v>7843863.3938515196</v>
       </c>
       <c r="I21">
-        <v>2428641.6865898701</v>
+        <v>1879744.7544404301</v>
       </c>
       <c r="J21">
-        <v>2.6381589128386702</v>
+        <v>4.3370889040340899</v>
       </c>
     </row>
     <row r="22">
@@ -1304,29 +1412,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.82999999999999996</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F22">
-        <v>2536583.10110929</v>
+        <v>1951898.0876325101</v>
       </c>
       <c r="G22">
-        <v>0.84369189265633304</v>
+        <v>0.93256778199130597</v>
       </c>
       <c r="H22">
-        <v>6344665.9248255203</v>
+        <v>8049522.6572794896</v>
       </c>
       <c r="I22">
-        <v>2648084.4863450499</v>
+        <v>2025987.11254346</v>
       </c>
       <c r="J22">
-        <v>2.5012647612652201</v>
+        <v>4.1239461774579</v>
       </c>
     </row>
     <row r="23">
@@ -1334,29 +1442,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.83999999999999997</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F23">
-        <v>2761346.3569239699</v>
+        <v>2101047.75042943</v>
       </c>
       <c r="G23">
-        <v>0.82297817596275202</v>
+        <v>0.92447404736307104</v>
       </c>
       <c r="H23">
-        <v>6575702.2647305503</v>
+        <v>8264648.9267343497</v>
       </c>
       <c r="I23">
-        <v>2878072.6096893498</v>
+        <v>2178057.3409342999</v>
       </c>
       <c r="J23">
-        <v>2.3813391783476301</v>
+        <v>3.93358452945448</v>
       </c>
     </row>
     <row r="24">
@@ -1364,29 +1472,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.84999999999999998</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F24">
-        <v>2996496.5518886601</v>
+        <v>2256043.6741116499</v>
       </c>
       <c r="G24">
-        <v>0.80046545744184705</v>
+        <v>0.91577279846891102</v>
       </c>
       <c r="H24">
-        <v>6822210.9083999703</v>
+        <v>8490078.2447269391</v>
       </c>
       <c r="I24">
-        <v>3118227.6019799099</v>
+        <v>2335986.2983364598</v>
       </c>
       <c r="J24">
-        <v>2.27672910355929</v>
+        <v>3.7632597019958101</v>
       </c>
     </row>
     <row r="25">
@@ -1394,29 +1502,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.85999999999999999</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F25">
-        <v>3241561.5884683598</v>
+        <v>2416907.9315717099</v>
       </c>
       <c r="G25">
-        <v>0.776074210309598</v>
+        <v>0.90644062992900698</v>
       </c>
       <c r="H25">
-        <v>7086781.1445728298</v>
+        <v>8726774.0888188798</v>
       </c>
       <c r="I25">
-        <v>3367981.5665342798</v>
+        <v>2499787.8769213902</v>
       </c>
       <c r="J25">
-        <v>2.1862244326264202</v>
+        <v>3.6107184617263801</v>
       </c>
     </row>
     <row r="26">
@@ -1424,29 +1532,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="F26">
-        <v>3495879.0202678102</v>
+        <v>2583646.73344946</v>
       </c>
       <c r="G26">
-        <v>0.74972934995558205</v>
+        <v>0.89645408086489098</v>
       </c>
       <c r="H26">
-        <v>7372842.6505757896</v>
+        <v>8975853.5372947808</v>
       </c>
       <c r="I26">
-        <v>3626587.7937414302</v>
+        <v>2669462.1247997801</v>
       </c>
       <c r="J26">
-        <v>2.1090096676202998</v>
+        <v>3.4741024850990398</v>
       </c>
     </row>
     <row r="27">
@@ -1454,29 +1562,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.88</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F27">
-        <v>3758628.4258082299</v>
+        <v>2756255.03766145</v>
       </c>
       <c r="G27">
-        <v>0.72136163264470299</v>
+        <v>0.88578969020589504</v>
       </c>
       <c r="H27">
-        <v>7685030.55531199</v>
+        <v>9238619.8461487405</v>
       </c>
       <c r="I27">
-        <v>3893190.8452554401</v>
+        <v>2845001.8765689898</v>
       </c>
       <c r="J27">
-        <v>2.0446369485590901</v>
+        <v>3.3518740899925001</v>
       </c>
     </row>
     <row r="28">
@@ -1484,29 +1592,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.89000000000000001</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F28">
-        <v>4028950.8109567999</v>
+        <v>2934725.5312628401</v>
       </c>
       <c r="G28">
-        <v>0.69090850600977105</v>
+        <v>0.87442402550683795</v>
       </c>
       <c r="H28">
-        <v>8029743.2562262202</v>
+        <v>9516603.2361304704</v>
       </c>
       <c r="I28">
-        <v>4167030.4437728398</v>
+        <v>3026404.9131421898</v>
       </c>
       <c r="J28">
-        <v>1.9930109929337501</v>
+        <v>3.24275750313025</v>
       </c>
     </row>
     <row r="29">
@@ -1514,29 +1622,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.90000000000000002</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F29">
-        <v>4306262.9751244597</v>
+        <v>3119064.48139353</v>
       </c>
       <c r="G29">
-        <v>0.65831336468745905</v>
+        <v>0.862333663187697</v>
       </c>
       <c r="H29">
-        <v>8416014.5374715608</v>
+        <v>9811612.2508117501</v>
       </c>
       <c r="I29">
-        <v>4447946.94371418</v>
+        <v>3213694.7945062402</v>
       </c>
       <c r="J29">
-        <v>1.95436613743458</v>
+        <v>3.14569073814984</v>
       </c>
     </row>
     <row r="30">
@@ -1544,29 +1652,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.91000000000000003</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F30">
-        <v>4591015.02645972</v>
+        <v>3309318.3549156198</v>
       </c>
       <c r="G30">
-        <v>0.62352085208626895</v>
+        <v>0.84949508554727904</v>
       </c>
       <c r="H30">
-        <v>8856910.93677794</v>
+        <v>10125798.796350099</v>
       </c>
       <c r="I30">
-        <v>4737585.9577286197</v>
+        <v>3406955.3030315801</v>
       </c>
       <c r="J30">
-        <v>1.92918360879506</v>
+        <v>3.0597838317094501</v>
       </c>
     </row>
     <row r="31">
@@ -1574,29 +1682,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.92000000000000004</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F31">
-        <v>4886493.8557872903</v>
+        <v>3505617.36323214</v>
       </c>
       <c r="G31">
-        <v>0.586462739384085</v>
+        <v>0.83588444017729102</v>
       </c>
       <c r="H31">
-        <v>9371826.5591591001</v>
+        <v>10461740.971015999</v>
       </c>
       <c r="I31">
-        <v>5042305.9410198797</v>
+        <v>3606386.3452588599</v>
       </c>
       <c r="J31">
-        <v>1.9179040915112699</v>
+        <v>2.9842791973652298</v>
       </c>
     </row>
     <row r="32">
@@ -1604,29 +1712,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.93000000000000005</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F32">
-        <v>5203242.0344107999</v>
+        <v>3708245.7771509001</v>
       </c>
       <c r="G32">
-        <v>0.54702106096210801</v>
+        <v>0.821477076051084</v>
       </c>
       <c r="H32">
-        <v>9990329.5046075694</v>
+        <v>10822549.109213799</v>
       </c>
       <c r="I32">
-        <v>5380532.2739764098</v>
+        <v>3812393.9603356398</v>
       </c>
       <c r="J32">
-        <v>1.9200201410078801</v>
+        <v>2.9185091171408</v>
       </c>
     </row>
     <row r="33">
@@ -1634,29 +1742,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.93999999999999995</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F33">
-        <v>5570544.9087525504</v>
+        <v>3917754.9896509298</v>
       </c>
       <c r="G33">
-        <v>0.504933725094043</v>
+        <v>0.80624672003242903</v>
       </c>
       <c r="H33">
-        <v>10758629.0430461</v>
+        <v>11212002.173040301</v>
       </c>
       <c r="I33">
-        <v>5802824.1300222296</v>
+        <v>4025735.1465855301</v>
       </c>
       <c r="J33">
-        <v>1.9313423047971301</v>
+        <v>2.8618436330647898</v>
       </c>
     </row>
     <row r="34">
@@ -1664,29 +1772,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.94999999999999996</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F34">
-        <v>6069014.0461644698</v>
+        <v>4135145.6970479302</v>
       </c>
       <c r="G34">
-        <v>0.45954315856500499</v>
+        <v>0.790164074808137</v>
       </c>
       <c r="H34">
-        <v>11749790.0256509</v>
+        <v>11634723.7628318</v>
       </c>
       <c r="I34">
-        <v>6449220.0240478599</v>
+        <v>4247752.0333309798</v>
       </c>
       <c r="J34">
-        <v>1.93602946644629</v>
+        <v>2.8136188214934799</v>
       </c>
     </row>
     <row r="35">
@@ -1694,29 +1802,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.95999999999999996</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F35">
-        <v>6911354.80937644</v>
+        <v>4362163.5462877601</v>
       </c>
       <c r="G35">
-        <v>0.40909638575184698</v>
+        <v>0.77319448131394897</v>
       </c>
       <c r="H35">
-        <v>13074932.5260516</v>
+        <v>12096409.4959256</v>
       </c>
       <c r="I35">
-        <v>7558264.5279152496</v>
+        <v>4480754.1132479999</v>
       </c>
       <c r="J35">
-        <v>1.8918045573804401</v>
+        <v>2.7730297976149401</v>
       </c>
     </row>
     <row r="36">
@@ -1724,29 +1832,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.96999999999999997</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F36">
-        <v>8302700.0591450296</v>
+        <v>4601784.3950252896</v>
       </c>
       <c r="G36">
-        <v>0.34997449937182801</v>
+        <v>0.755294054157987</v>
       </c>
       <c r="H36">
-        <v>14913821.8587637</v>
+        <v>12604119.8547708</v>
       </c>
       <c r="I36">
-        <v>9230225.2284806799</v>
+        <v>4728650.5973761603</v>
       </c>
       <c r="J36">
-        <v>1.79626166819514</v>
+        <v>2.7389635786492601</v>
       </c>
     </row>
     <row r="37">
@@ -1754,29 +1862,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.97999999999999998</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F37">
-        <v>10231136.016528999</v>
+        <v>4859022.9476057999</v>
       </c>
       <c r="G37">
-        <v>0.27777428393815001</v>
+        <v>0.73640329081213296</v>
       </c>
       <c r="H37">
-        <v>17755620.173905201</v>
+        <v>13166653.373156101</v>
       </c>
       <c r="I37">
-        <v>11375528.0345822</v>
+        <v>4998014.6033616597</v>
       </c>
       <c r="J37">
-        <v>1.7354495283045901</v>
+        <v>2.7097327004071401</v>
       </c>
     </row>
     <row r="38">
@@ -1784,29 +1892,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.98999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F38">
-        <v>12809240.4393952</v>
+        <v>5142305.6428178297</v>
       </c>
       <c r="G38">
-        <v>0.188793186030111</v>
+        <v>0.71643642941543395</v>
       </c>
       <c r="H38">
-        <v>24135712.313228302</v>
+        <v>13795010.2016018</v>
       </c>
       <c r="I38">
-        <v>13070502.8453179</v>
+        <v>5299911.1760983001</v>
       </c>
       <c r="J38">
-        <v>1.8842422723987799</v>
+        <v>2.6826507718126602</v>
       </c>
     </row>
     <row r="39">
@@ -1814,29 +1922,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99099999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F39">
-        <v>13364908.302712601</v>
+        <v>5465853.2617739597</v>
       </c>
       <c r="G39">
-        <v>0.17856924134947</v>
+        <v>0.69526350371073598</v>
       </c>
       <c r="H39">
-        <v>25365180.031885002</v>
+        <v>14502935.1203938</v>
       </c>
       <c r="I39">
-        <v>13750111.470512399</v>
+        <v>5653112.6491919803</v>
       </c>
       <c r="J39">
-        <v>1.89789405638771</v>
+        <v>2.6533707411835699</v>
       </c>
     </row>
     <row r="40">
@@ -1844,29 +1952,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99199999999999999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F40">
-        <v>14196450.298332</v>
+        <v>5853920.4978391798</v>
       </c>
       <c r="G40">
-        <v>0.16781369654060799</v>
+        <v>0.67267955274540203</v>
       </c>
       <c r="H40">
-        <v>26817063.6020566</v>
+        <v>15307464.435957599</v>
       </c>
       <c r="I40">
-        <v>14783882.615765801</v>
+        <v>6089906.0104524</v>
       </c>
       <c r="J40">
-        <v>1.8889978155460001</v>
+        <v>2.6149081528537899</v>
       </c>
     </row>
     <row r="41">
@@ -1874,29 +1982,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.99299999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F41">
-        <v>15438783.9921897</v>
+        <v>6348548.6422613198</v>
       </c>
       <c r="G41">
-        <v>0.156249520332741</v>
+        <v>0.64835063038734397</v>
       </c>
       <c r="H41">
-        <v>28536089.457240999</v>
+        <v>16229220.278508101</v>
       </c>
       <c r="I41">
-        <v>16206610.5200937</v>
+        <v>6662134.79497525</v>
       </c>
       <c r="J41">
-        <v>1.84833789187524</v>
+        <v>2.5563670049675098</v>
       </c>
     </row>
     <row r="42">
@@ -1904,29 +2012,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.99399999999999999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F42">
-        <v>17016049.501471002</v>
+        <v>7005284.9767989898</v>
       </c>
       <c r="G42">
-        <v>0.14357246487595801</v>
+        <v>0.62173567772835703</v>
       </c>
       <c r="H42">
-        <v>30591002.613432199</v>
+        <v>17292229.776678398</v>
       </c>
       <c r="I42">
-        <v>17866326.1977566</v>
+        <v>7408610.75376713</v>
       </c>
       <c r="J42">
-        <v>1.7977734850141101</v>
+        <v>2.4684548642844799</v>
       </c>
     </row>
     <row r="43">
@@ -1934,29 +2042,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.995</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F43">
-        <v>18711993.9155045</v>
+        <v>7842221.3641254902</v>
       </c>
       <c r="G43">
-        <v>0.12959715475561401</v>
+        <v>0.59213858452197299</v>
       </c>
       <c r="H43">
-        <v>33135937.8965673</v>
+        <v>18527682.154542401</v>
       </c>
       <c r="I43">
-        <v>19497181.971468899</v>
+        <v>8335588.5865611304</v>
       </c>
       <c r="J43">
-        <v>1.7708394971800001</v>
+        <v>2.3625553646442401</v>
       </c>
     </row>
     <row r="44">
@@ -1964,29 +2072,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.996</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F44">
-        <v>20235337.855544899</v>
+        <v>8857975.6383083891</v>
       </c>
       <c r="G44">
-        <v>0.11434616462434199</v>
+        <v>0.55883825325526804</v>
       </c>
       <c r="H44">
-        <v>36545626.877841897</v>
+        <v>19983695.521396801</v>
       </c>
       <c r="I44">
-        <v>20969931.761779599</v>
+        <v>9435496.5175836496</v>
       </c>
       <c r="J44">
-        <v>1.8060299827327799</v>
+        <v>2.25601156938981</v>
       </c>
     </row>
     <row r="45">
@@ -1994,29 +2102,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.997</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F45">
-        <v>21870784.957997799</v>
+        <v>10038973.8349788</v>
       </c>
       <c r="G45">
-        <v>0.097943167369645506</v>
+        <v>0.52114383534602204</v>
       </c>
       <c r="H45">
-        <v>41737525.249862596</v>
+        <v>21741728.688699</v>
       </c>
       <c r="I45">
-        <v>24377061.4640976</v>
+        <v>10693118.299716201</v>
       </c>
       <c r="J45">
-        <v>1.9083688733631801</v>
+        <v>2.1657321800106999</v>
       </c>
     </row>
     <row r="46">
@@ -2024,29 +2132,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.998</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F46">
-        <v>28064789.7996107</v>
+        <v>11374389.094054</v>
       </c>
       <c r="G46">
-        <v>0.078875061816628705</v>
+        <v>0.47842527048922201</v>
       </c>
       <c r="H46">
-        <v>50417757.1427451</v>
+        <v>23951450.7664956</v>
       </c>
       <c r="I46">
-        <v>31921140.163284201</v>
+        <v>12135060.987578999</v>
       </c>
       <c r="J46">
-        <v>1.7964772764285799</v>
+        <v>2.1057351360537102</v>
       </c>
     </row>
     <row r="47">
@@ -2054,29 +2162,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.999</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F47">
-        <v>39291390.836312801</v>
+        <v>12965135.3094866</v>
       </c>
       <c r="G47">
-        <v>0.053905863995037301</v>
+        <v>0.42994620429831698</v>
       </c>
       <c r="H47">
-        <v>68914374.122206107</v>
+        <v>26905548.211224701</v>
       </c>
       <c r="I47">
-        <v>40275255.804988697</v>
+        <v>14122640.1303948</v>
       </c>
       <c r="J47">
-        <v>1.7539306360851901</v>
+        <v>2.0752230940110601</v>
       </c>
     </row>
     <row r="48">
@@ -2084,29 +2192,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99909999999999999</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F48">
-        <v>41130649.560812399</v>
+        <v>15606583.2790909</v>
       </c>
       <c r="G48">
-        <v>0.050755472673280802</v>
+        <v>0.37352684172794998</v>
       </c>
       <c r="H48">
-        <v>72096498.379674301</v>
+        <v>31166517.5715014</v>
       </c>
       <c r="I48">
-        <v>41744930.429729499</v>
+        <v>18083542.1421315</v>
       </c>
       <c r="J48">
-        <v>1.7528655430806801</v>
+        <v>1.9970109417387401</v>
       </c>
     </row>
     <row r="49">
@@ -2114,29 +2222,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99919999999999998</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F49">
-        <v>42296471.8411799</v>
+        <v>21155299.700190399</v>
       </c>
       <c r="G49">
-        <v>0.047490121183275898</v>
+        <v>0.30128383962258498</v>
       </c>
       <c r="H49">
-        <v>75890444.373416901</v>
+        <v>37708005.2861863</v>
       </c>
       <c r="I49">
-        <v>43260757.073142298</v>
+        <v>25302117.1883597</v>
       </c>
       <c r="J49">
-        <v>1.79424999461846</v>
+        <v>1.7824377730676599</v>
       </c>
     </row>
     <row r="50">
@@ -2144,29 +2252,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99929999999999997</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F50">
-        <v>44798464.758078001</v>
+        <v>31802179.447301999</v>
       </c>
       <c r="G50">
-        <v>0.044106199444435799</v>
+        <v>0.20020292909398901</v>
       </c>
       <c r="H50">
-        <v>80551828.273455396</v>
+        <v>50113893.3840129</v>
       </c>
       <c r="I50">
-        <v>47915173.9431988</v>
+        <v>32529062.991041899</v>
       </c>
       <c r="J50">
-        <v>1.7980934995976701</v>
+        <v>1.57580059778779</v>
       </c>
     </row>
     <row r="51">
@@ -2174,29 +2282,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99939999999999996</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F51">
-        <v>51744246.294977397</v>
+        <v>33059681.9316861</v>
       </c>
       <c r="G51">
-        <v>0.0403582021901909</v>
+        <v>0.187207703116263</v>
       </c>
       <c r="H51">
-        <v>85991270.6618305</v>
+        <v>52067763.427676298</v>
       </c>
       <c r="I51">
-        <v>54906029.607544698</v>
+        <v>33314919.9593965</v>
       </c>
       <c r="J51">
-        <v>1.6618518351126801</v>
+        <v>1.5749626247242201</v>
       </c>
     </row>
     <row r="52">
@@ -2204,29 +2312,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99950000000000006</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F52">
-        <v>56193573.989436999</v>
+        <v>33586977.4126302</v>
       </c>
       <c r="G52">
-        <v>0.036063369650200197</v>
+        <v>0.17389853053353399</v>
       </c>
       <c r="H52">
-        <v>92208318.872686401</v>
+        <v>54411868.8612113</v>
       </c>
       <c r="I52">
-        <v>60810864.713216297</v>
+        <v>34242615.573518403</v>
       </c>
       <c r="J52">
-        <v>1.64090504174053</v>
+        <v>1.6200287448536499</v>
       </c>
     </row>
     <row r="53">
@@ -2234,29 +2342,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99960000000000004</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F53">
-        <v>70673265.675870895</v>
+        <v>35251269.846832901</v>
       </c>
       <c r="G53">
-        <v>0.031306651992374701</v>
+        <v>0.16021874739410399</v>
       </c>
       <c r="H53">
-        <v>100057682.412552</v>
+        <v>57293190.759453103</v>
       </c>
       <c r="I53">
-        <v>77275292.002015799</v>
+        <v>37119412.951945998</v>
       </c>
       <c r="J53">
-        <v>1.41577839166859</v>
+        <v>1.6252801958168499</v>
       </c>
     </row>
     <row r="54">
@@ -2264,29 +2372,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99970000000000003</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F54">
-        <v>84031339.284208298</v>
+        <v>39360810.705111302</v>
       </c>
       <c r="G54">
-        <v>0.025262061971931701</v>
+        <v>0.14538969561342599</v>
       </c>
       <c r="H54">
-        <v>107651812.54940499</v>
+        <v>60655487.060704298</v>
       </c>
       <c r="I54">
-        <v>91164194.327339604</v>
+        <v>41381448.850541599</v>
       </c>
       <c r="J54">
-        <v>1.28109123889254</v>
+        <v>1.54101213806625</v>
       </c>
     </row>
     <row r="55">
@@ -2294,29 +2402,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99980000000000002</v>
+        <v>0.995</v>
       </c>
       <c r="F55">
-        <v>98532198.096706897</v>
+        <v>42596836.7443299</v>
       </c>
       <c r="G55">
-        <v>0.0181310610403819</v>
+        <v>0.128857978138299</v>
       </c>
       <c r="H55">
-        <v>115895621.660438</v>
+        <v>64510294.702736899</v>
       </c>
       <c r="I55">
-        <v>106536890.806532</v>
+        <v>43288801.253214203</v>
       </c>
       <c r="J55">
-        <v>1.1762208080112999</v>
+        <v>1.5144386211101399</v>
       </c>
     </row>
     <row r="56">
@@ -2324,29 +2432,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99990000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="F56">
-        <v>114994204.063712</v>
+        <v>43980765.762098096</v>
       </c>
       <c r="G56">
-        <v>0.0097975845785825601</v>
+        <v>0.11156428127573299</v>
       </c>
       <c r="H56">
-        <v>125254352.51434401</v>
+        <v>69815668.065117598</v>
       </c>
       <c r="I56">
-        <v>115904068.72032399</v>
+        <v>44882884.9055783</v>
       </c>
       <c r="J56">
-        <v>1.0892231789782001</v>
+        <v>1.5874136535677099</v>
       </c>
     </row>
     <row r="57">
@@ -2354,29 +2462,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99990999999999997</v>
+        <v>0.997</v>
       </c>
       <c r="F57">
-        <v>116821664.907049</v>
+        <v>48060071.485138401</v>
       </c>
       <c r="G57">
-        <v>0.0088909654523896507</v>
+        <v>0.093633754594379601</v>
       </c>
       <c r="H57">
-        <v>126293272.93589699</v>
+        <v>78126595.784963995</v>
       </c>
       <c r="I57">
-        <v>117755813.019842</v>
+        <v>54529824.006873302</v>
       </c>
       <c r="J57">
-        <v>1.08107749565446</v>
+        <v>1.6256029874845901</v>
       </c>
     </row>
     <row r="58">
@@ -2384,29 +2492,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99992000000000003</v>
+        <v>0.998</v>
       </c>
       <c r="F58">
-        <v>118698838.72306</v>
+        <v>56579581.456609301</v>
       </c>
       <c r="G58">
-        <v>0.0079698617026861002</v>
+        <v>0.071849315685391393</v>
       </c>
       <c r="H58">
-        <v>127360455.42539801</v>
+        <v>89924981.674009293</v>
       </c>
       <c r="I58">
-        <v>119661030.28609</v>
+        <v>65037219.836980902</v>
       </c>
       <c r="J58">
-        <v>1.0729713685114199</v>
+        <v>1.58935395700961</v>
       </c>
     </row>
     <row r="59">
@@ -2414,29 +2522,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99992999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="F59">
-        <v>120633594.080156</v>
+        <v>79224823.350980401</v>
       </c>
       <c r="G59">
-        <v>0.00703385505584171</v>
+        <v>0.045867215648344499</v>
       </c>
       <c r="H59">
-        <v>128460373.302449</v>
+        <v>114812743.51103801</v>
       </c>
       <c r="I59">
-        <v>121628793.25967599</v>
+        <v>80561734.236882195</v>
       </c>
       <c r="J59">
-        <v>1.06488059385093</v>
+        <v>1.4492016347249701</v>
       </c>
     </row>
     <row r="60">
@@ -2444,29 +2552,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99994000000000005</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="F60">
-        <v>122636385.43408599</v>
+        <v>81960174.777939603</v>
       </c>
       <c r="G60">
-        <v>0.0060824562699107196</v>
+        <v>0.042648807722318403</v>
       </c>
       <c r="H60">
-        <v>129598969.97623999</v>
+        <v>118618411.208166</v>
       </c>
       <c r="I60">
-        <v>123671413.52929901</v>
+        <v>83498186.068038493</v>
       </c>
       <c r="J60">
-        <v>1.0567742152339901</v>
+        <v>1.4472688904037501</v>
       </c>
     </row>
     <row r="61">
@@ -2474,29 +2582,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99995000000000001</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="F61">
-        <v>124721699.588815</v>
+        <v>85115539.539050996</v>
       </c>
       <c r="G61">
-        <v>0.0051150797997991503</v>
+        <v>0.039313089761480902</v>
       </c>
       <c r="H61">
-        <v>130784481.265633</v>
+        <v>123008439.35068101</v>
       </c>
       <c r="I61">
-        <v>125806447.195218</v>
+        <v>86915713.155105099</v>
       </c>
       <c r="J61">
-        <v>1.04861047994701</v>
+        <v>1.44519367458447</v>
       </c>
     </row>
     <row r="62">
@@ -2504,29 +2612,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99995999999999996</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F62">
-        <v>126910789.85783701</v>
+        <v>88821526.727445006</v>
       </c>
       <c r="G62">
-        <v>0.0041310027739892398</v>
+        <v>0.035840843008548701</v>
       </c>
       <c r="H62">
-        <v>132028989.78323101</v>
+        <v>128164543.092905</v>
       </c>
       <c r="I62">
-        <v>128060735.795256</v>
+        <v>90975713.767611802</v>
       </c>
       <c r="J62">
-        <v>1.0403291156813901</v>
+        <v>1.44294460830635</v>
       </c>
     </row>
     <row r="63">
@@ -2534,29 +2642,29 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D63"/>
       <c r="E63">
-        <v>0.99997000000000003</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="F63">
-        <v>129237509.219253</v>
+        <v>93276483.801014602</v>
       </c>
       <c r="G63">
-        <v>0.00312929236236881</v>
+        <v>0.032206400912197702</v>
       </c>
       <c r="H63">
-        <v>133351741.112547</v>
+        <v>134362681.313786</v>
       </c>
       <c r="I63">
-        <v>130479915.303984</v>
+        <v>95931288.361048996</v>
       </c>
       <c r="J63">
-        <v>1.03183465789575</v>
+        <v>1.4404775548831801</v>
       </c>
     </row>
     <row r="64">
@@ -2564,29 +2672,29 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="D64"/>
       <c r="E64">
-        <v>0.99997999999999998</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F64">
-        <v>131763279.771644</v>
+        <v>98801052.624119803</v>
       </c>
       <c r="G64">
-        <v>0.0021086587633414701</v>
+        <v>0.0283739856627039</v>
       </c>
       <c r="H64">
-        <v>134787654.016839</v>
+        <v>142048959.90433201</v>
       </c>
       <c r="I64">
-        <v>133157543.200349</v>
+        <v>102209970.474701</v>
       </c>
       <c r="J64">
-        <v>1.0229530886786999</v>
+        <v>1.43772719147786</v>
       </c>
     </row>
     <row r="65">
@@ -2594,29 +2702,389 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="D65"/>
       <c r="E65">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F65">
+        <v>105959693.712722</v>
+      </c>
+      <c r="G65">
+        <v>0.0242907396624698</v>
+      </c>
+      <c r="H65">
+        <v>152008707.26173699</v>
+      </c>
+      <c r="I65">
+        <v>110614278.917877</v>
+      </c>
+      <c r="J65">
+        <v>1.4345899080631801</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F66">
+        <v>115877209.52071001</v>
+      </c>
+      <c r="G66">
+        <v>0.019871745019745601</v>
+      </c>
+      <c r="H66">
+        <v>165806850.04303899</v>
+      </c>
+      <c r="I66">
+        <v>122918494.071171</v>
+      </c>
+      <c r="J66">
+        <v>1.4308840429351699</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F67">
+        <v>131290368.92452499</v>
+      </c>
+      <c r="G67">
+        <v>0.0149612020762355</v>
+      </c>
+      <c r="H67">
+        <v>187251028.02897301</v>
+      </c>
+      <c r="I67">
+        <v>144423107.374284</v>
+      </c>
+      <c r="J67">
+        <v>1.4262358279807801</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F68">
+        <v>162073249.40694299</v>
+      </c>
+      <c r="G68">
+        <v>0.0091915587352916807</v>
+      </c>
+      <c r="H68">
+        <v>230078948.68366399</v>
+      </c>
+      <c r="I68">
+        <v>164627980.31723699</v>
+      </c>
+      <c r="J68">
+        <v>1.4195985427920199</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F69">
+        <v>167300289.529558</v>
+      </c>
+      <c r="G69">
+        <v>0.0085338767703796899</v>
+      </c>
+      <c r="H69">
+        <v>237351278.50211999</v>
+      </c>
+      <c r="I69">
+        <v>170239307.39874101</v>
+      </c>
+      <c r="J69">
+        <v>1.4187140929017099</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F70">
+        <v>173329941.89716801</v>
+      </c>
+      <c r="G70">
+        <v>0.0078537777861151393</v>
+      </c>
+      <c r="H70">
+        <v>245740274.88999301</v>
+      </c>
+      <c r="I70">
+        <v>176769931.225842</v>
+      </c>
+      <c r="J70">
+        <v>1.41776009499723</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F71">
+        <v>180411790.151443</v>
+      </c>
+      <c r="G71">
+        <v>0.0071475892300554298</v>
+      </c>
+      <c r="H71">
+        <v>255593181.12779301</v>
+      </c>
+      <c r="I71">
+        <v>184528271.11969399</v>
+      </c>
+      <c r="J71">
+        <v>1.4167210519514299</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F72">
+        <v>188924860.58859399</v>
+      </c>
+      <c r="G72">
+        <v>0.0064104064273632199</v>
+      </c>
+      <c r="H72">
+        <v>267437332.79574299</v>
+      </c>
+      <c r="I72">
+        <v>193997982.02240801</v>
+      </c>
+      <c r="J72">
+        <v>1.41557512316031</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F73">
+        <v>199481874.438526</v>
+      </c>
+      <c r="G73">
+        <v>0.00563539252170137</v>
+      </c>
+      <c r="H73">
+        <v>282125202.95050597</v>
+      </c>
+      <c r="I73">
+        <v>205996046.69593501</v>
+      </c>
+      <c r="J73">
+        <v>1.4142899135302101</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F74">
+        <v>213161471.08001599</v>
+      </c>
+      <c r="G74">
+        <v>0.0048124468444598603</v>
+      </c>
+      <c r="H74">
+        <v>301157492.01405001</v>
+      </c>
+      <c r="I74">
+        <v>222056015.079575</v>
+      </c>
+      <c r="J74">
+        <v>1.4128139127966599</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F75">
+        <v>232113058.99443901</v>
+      </c>
+      <c r="G75">
+        <v>0.0039253422584918001</v>
+      </c>
+      <c r="H75">
+        <v>327524650.99200499</v>
+      </c>
+      <c r="I75">
+        <v>245568396.57833001</v>
+      </c>
+      <c r="J75">
+        <v>1.41105654464643</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F76">
+        <v>261566386.938582</v>
+      </c>
+      <c r="G76">
+        <v>0.0029443066819603899</v>
+      </c>
+      <c r="H76">
+        <v>368502778.19906902</v>
+      </c>
+      <c r="I76">
+        <v>286662010.89385498</v>
+      </c>
+      <c r="J76">
+        <v>1.40883078484238</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F65">
-        <v>134630644.41824201</v>
-      </c>
-      <c r="G65">
-        <v>0.00106708035461787</v>
-      </c>
-      <c r="H65">
-        <v>136417764.833303</v>
-      </c>
-      <c r="I65">
-        <v>136417764.83330601</v>
-      </c>
-      <c r="J65">
-        <v>1.01327424690555</v>
+      <c r="F77">
+        <v>320390035.62398398</v>
+      </c>
+      <c r="G77">
+        <v>0.00179910381773892</v>
+      </c>
+      <c r="H77">
+        <v>450343545.50337601</v>
+      </c>
+      <c r="I77">
+        <v>450343545.50338602</v>
+      </c>
+      <c r="J77">
+        <v>1.40561033562201</v>
       </c>
     </row>
   </sheetData>
